--- a/excel/sample_upload1.xlsx
+++ b/excel/sample_upload1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\application\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EE03DF-2C04-4144-8837-E19595A1DD65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971068DB-9786-4DCE-AF21-1EC253199670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E52A1AE8-8B0B-46F2-9F8D-D85734BD4421}"/>
   </bookViews>
@@ -1724,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8161C3B-E93D-4474-993A-5013AB1A25F1}">
   <dimension ref="A1:AC196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
